--- a/0-exercices/corrections/exercice1/exercice1.xlsx
+++ b/0-exercices/corrections/exercice1/exercice1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\formations\coderbase\2itech\cad_merignac_11092023\2-merise\0-exercices\corrections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\formations\coderbase\2itech\cda_lyon_02102023\2-merise\0-exercices\corrections\exercice1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AC4776-A8BA-4E7C-83B3-5C21234C73EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F079A32-E149-4108-BFB3-46F680E77ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{04B90186-9B0E-4BC1-B8EC-CFA316EDE382}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{04B90186-9B0E-4BC1-B8EC-CFA316EDE382}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
   <si>
     <t>Taille/longueur</t>
   </si>
@@ -322,9 +322,6 @@
     <t>la date de début doit être avant la date d'arrivée</t>
   </si>
   <si>
-    <t>id_chambre</t>
-  </si>
-  <si>
     <t>montant_acompte</t>
   </si>
   <si>
@@ -335,6 +332,12 @@
   </si>
   <si>
     <t>tarif_unit_chambre</t>
+  </si>
+  <si>
+    <t>numero_chambre</t>
+  </si>
+  <si>
+    <t>num_chambre</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -424,6 +427,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,9 +748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCEF9C4-1566-4006-A927-078DD05D443B}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,10 +985,10 @@
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>84</v>
@@ -1004,7 +1010,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -1073,7 +1079,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>22</v>
@@ -1096,7 +1102,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -1368,7 +1374,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>45</v>
